--- a/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_senso_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.3406186824769273</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2689891341315084</v>
+        <v>0.268989134131508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6629687590369749</v>
@@ -649,7 +649,7 @@
         <v>-0.5561326733571074</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1362593768477906</v>
+        <v>0.1362593768477904</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8858996406437417</v>
+        <v>-0.829603467125321</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9037920828569304</v>
+        <v>-0.987958341861688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.367981351736725</v>
+        <v>-1.251171192181564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.277302675509275</v>
+        <v>-1.248250340290174</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5824601955547329</v>
+        <v>-0.5560837497903629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.450314775221772</v>
+        <v>-0.4997796531247787</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.481869221943084</v>
+        <v>-0.4920634957256998</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.135501984850739</v>
+        <v>2.833905011795697</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.273450341806333</v>
+        <v>4.163422403467471</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4114048435878616</v>
+        <v>0.5438560090263866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.806799721703198</v>
+        <v>1.783757590055945</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4.84684248080787</v>
+        <v>4.717266177988719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.278566607286521</v>
+        <v>4.447328018107954</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.616728990902241</v>
+        <v>1.539828369739926</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>0.7786849539164824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.5559195440233939</v>
+        <v>-0.5559195440233928</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5556661863257999</v>
@@ -745,7 +745,7 @@
         <v>0.9496166595267426</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2013370335829811</v>
+        <v>-0.2013370335829807</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.774133718624277</v>
+        <v>-2.818169259474871</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.6576913063311451</v>
+        <v>-0.7058286263874749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8283717265576692</v>
+        <v>-0.6046951656036192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.011977730310228</v>
+        <v>-2.97701211120688</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9833987643007717</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6901771147844571</v>
+        <v>-0.6772341434033615</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7059546498357204</v>
+        <v>-0.7094473937473009</v>
       </c>
     </row>
     <row r="9">
@@ -788,26 +788,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4923224840583895</v>
+        <v>0.4658056573043464</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.304755426224702</v>
+        <v>2.212817180702319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.399145171773768</v>
+        <v>2.36262212003942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.354769677751813</v>
+        <v>1.369808603775619</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.051068072573707</v>
+        <v>1.053621384966551</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
-      <c r="I9" s="6" t="n">
-        <v>8.573628241697135</v>
-      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>0.9811522451899122</v>
+        <v>0.8271459722376815</v>
       </c>
     </row>
     <row r="10">
@@ -843,7 +841,7 @@
         <v>0.1260783295210704</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4131110320349773</v>
+        <v>0.4131110320349775</v>
       </c>
     </row>
     <row r="11">
@@ -854,26 +852,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7583819962522619</v>
+        <v>-0.7333286114061991</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.600391814519261</v>
+        <v>-1.684970995460993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.438106920719375</v>
+        <v>-1.542648288231708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.687446650440178</v>
+        <v>-1.558511725082063</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9092786332146187</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6770003202967487</v>
+        <v>-0.6941189668321083</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.4910966668042503</v>
+        <v>-0.4704688955654462</v>
       </c>
     </row>
     <row r="12">
@@ -884,26 +882,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.90596198049452</v>
+        <v>4.264170996139946</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.822830334508144</v>
+        <v>2.746017747243183</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.707765135144109</v>
+        <v>4.643876469088854</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.580571985225728</v>
+        <v>6.49730093536032</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>11.79610106685266</v>
+        <v>9.228019648229479</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.523142964813798</v>
+        <v>2.34290360373918</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>3.335911739157513</v>
+        <v>3.02397243714717</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +925,7 @@
         <v>0.1392585722091638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.3413985774211467</v>
+        <v>-0.3413985774211464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1661398904582743</v>
@@ -939,7 +937,7 @@
         <v>0.1390255233195297</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1314076848643467</v>
+        <v>-0.1314076848643465</v>
       </c>
     </row>
     <row r="14">
@@ -950,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.346515220370439</v>
+        <v>-1.356892810520885</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.851982973787498</v>
+        <v>-0.8936111586978798</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8218545710091717</v>
+        <v>-0.8037527435177617</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.730738072492557</v>
+        <v>-1.76872256289925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6363640903903112</v>
+        <v>-0.6289486666733141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3562002198475447</v>
+        <v>-0.4070074275940219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6232552043817904</v>
+        <v>-0.5860974995060272</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4989601008290365</v>
+        <v>-0.5113464417469231</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9609951616946617</v>
+        <v>0.9095444130634791</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.108467794833231</v>
+        <v>2.153335425066434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.262021768162164</v>
+        <v>1.186073183395858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8983429849695643</v>
+        <v>0.9396639120023963</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8141155344846801</v>
+        <v>0.7731430926885509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.573624584821217</v>
+        <v>1.430380158187098</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.635597771173366</v>
+        <v>2.175320719500377</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.510180741171765</v>
+        <v>0.5276371931650187</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1025,7 @@
         <v>-0.2935340808811603</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.884221187026963</v>
+        <v>1.884221187026964</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.4561750530767368</v>
@@ -1039,7 +1037,7 @@
         <v>-0.1926749641706894</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6920745757332288</v>
+        <v>0.6920745757332292</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.464102315609732</v>
+        <v>-3.46281217424265</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.5152225694859388</v>
+        <v>-0.5725072793092726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.759390754592676</v>
+        <v>-1.761597165161708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.08080891597004713</v>
+        <v>0.001087195663689685</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8286813399778358</v>
+        <v>-0.8334105484875735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.414032373652016</v>
+        <v>-0.4443710548326683</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7434732043166262</v>
+        <v>-0.7248276632246743</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02769770793466418</v>
+        <v>-0.02040348555321811</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6872090964069245</v>
+        <v>0.5463139906922446</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.268816643111588</v>
+        <v>2.299013788094332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9567448799925702</v>
+        <v>0.9366090094731664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.342870646267908</v>
+        <v>3.611409063622785</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8964046277601165</v>
+        <v>0.6341522874587474</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7.362584983686073</v>
+        <v>5.179880438174636</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.304018063126793</v>
+        <v>1.728825439409641</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.895224089116983</v>
+        <v>2.078969777438794</v>
       </c>
     </row>
     <row r="19">
@@ -1150,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.556354937378459</v>
+        <v>-1.121904518120628</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.889586256965435</v>
+        <v>-2.891966756792318</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.283728158896674</v>
+        <v>-1.286730442800207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.3587878730537187</v>
+        <v>-0.4281367536847859</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3675982127914265</v>
+        <v>-0.4832619601969746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6894188918696837</v>
+        <v>-0.6489926460080853</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8135216070552099</v>
+        <v>-0.7867038710698481</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3457496319309905</v>
+        <v>-0.2216468920625792</v>
       </c>
     </row>
     <row r="21">
@@ -1182,24 +1180,24 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.241239090777355</v>
+        <v>2.247089812438231</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.901924420511792</v>
+        <v>1.684775746020994</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.132388574211104</v>
+        <v>1.155033241541546</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.725032035157293</v>
+        <v>3.80224754945564</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>3.784877315939298</v>
+        <v>3.375818000048147</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>13.36424217031265</v>
+        <v>12.91260216545431</v>
       </c>
     </row>
     <row r="22">
@@ -1246,28 +1244,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4776056779604266</v>
+        <v>-0.5197933975159783</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2416163843722363</v>
+        <v>-0.2429200848290266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.4776176941856541</v>
+        <v>-0.456744939356642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1667827166567374</v>
+        <v>-0.1427146483073419</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2606496713549388</v>
+        <v>-0.2823788301144213</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1278678142348714</v>
+        <v>-0.1324688947643319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3819528996906696</v>
+        <v>-0.3720394612291898</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.05311534597726165</v>
+        <v>-0.0488068582224632</v>
       </c>
     </row>
     <row r="24">
@@ -1278,28 +1276,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7230133286491527</v>
+        <v>0.6660035522151175</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.181290731648413</v>
+        <v>1.190053017725173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5108618815232796</v>
+        <v>0.5616238294904057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.429471290148748</v>
+        <v>1.411450323918905</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5716989282402152</v>
+        <v>0.5226049546970214</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8550637902401554</v>
+        <v>0.8723429507436053</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6706881197271485</v>
+        <v>0.7208128710674381</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6890114403230304</v>
+        <v>0.6592199586556556</v>
       </c>
     </row>
     <row r="25">
